--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/53.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/53.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1259296249829983</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.555755663296076</v>
+        <v>-1.562003732198079</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004948043247968938</v>
+        <v>0.01458891036593565</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1521123067327776</v>
+        <v>-0.1326527083361372</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1165063330370861</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.567586778021332</v>
+        <v>-1.563207069816313</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01454011577317533</v>
+        <v>0.0254622344558808</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1159240331149535</v>
+        <v>-0.09310075585609351</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1156142464805096</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.636203780585754</v>
+        <v>-1.641592435047527</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.04473272227764467</v>
+        <v>-0.03430799363727022</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1231629470538153</v>
+        <v>-0.09980292927459183</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1255680341082955</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.772018807476744</v>
+        <v>-1.783686224213386</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.09019039450080854</v>
+        <v>-0.09161802984382826</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1292197726325804</v>
+        <v>-0.1056582804058304</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1406367643092155</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.807649091316067</v>
+        <v>-1.844156890815515</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1132450525704997</v>
+        <v>-0.122245293906097</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1265675504131887</v>
+        <v>-0.1045092464472809</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1533226162037193</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.631378624969407</v>
+        <v>-1.665249942440676</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1045249866384939</v>
+        <v>-0.1338080383711719</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1206775708612816</v>
+        <v>-0.1047374792198695</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.158537126464981</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.322410476601491</v>
+        <v>-1.329924843886581</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1197174191972881</v>
+        <v>-0.1422400588039797</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.08142310799516371</v>
+        <v>-0.0601344993795719</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1538150782978154</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.831111101260347</v>
+        <v>-0.8115712278885202</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.05088713704193036</v>
+        <v>-0.08657487257918085</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.08457429427600768</v>
+        <v>-0.07007443013058574</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1387154187622091</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3083998133249655</v>
+        <v>-0.2700362452815038</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.0441141327629735</v>
+        <v>-0.100050050276636</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01698119114999224</v>
+        <v>0.009559919273379952</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1124325947466247</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2506225217197016</v>
+        <v>0.3119683429532746</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.07993880796377716</v>
+        <v>-0.1214787465940236</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05873542466105604</v>
+        <v>0.08230478698341254</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.07526407034185693</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8921801234088915</v>
+        <v>0.9723921378303746</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1360919401161792</v>
+        <v>-0.2114355133954792</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1342993606173382</v>
+        <v>0.1460289511092709</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.0268364393245423</v>
       </c>
       <c r="E13" t="n">
-        <v>1.554503759365401</v>
+        <v>1.666115881237712</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2897760190817357</v>
+        <v>-0.3737861416429173</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2366546760372793</v>
+        <v>0.2521855227071532</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.0324747779734413</v>
       </c>
       <c r="E14" t="n">
-        <v>2.211456842080033</v>
+        <v>2.333235553456825</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.5282761183985799</v>
+        <v>-0.6147873573435083</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3458223462142098</v>
+        <v>0.3629382301392335</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1025238635783812</v>
       </c>
       <c r="E15" t="n">
-        <v>2.903277596369718</v>
+        <v>3.042241448512871</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.8199434355947186</v>
+        <v>-0.9140650569911358</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4842998264488804</v>
+        <v>0.5081792705381332</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1806564361643381</v>
       </c>
       <c r="E16" t="n">
-        <v>3.576713807322611</v>
+        <v>3.719938529227124</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.055989639101455</v>
+        <v>-1.15102891364559</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6464143518281235</v>
+        <v>0.6691242997102498</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2618290208216754</v>
       </c>
       <c r="E17" t="n">
-        <v>4.231881952353688</v>
+        <v>4.383683504450169</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.333981878171733</v>
+        <v>-1.448313905085651</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8185726932203862</v>
+        <v>0.8398062111667325</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.3418881523213133</v>
       </c>
       <c r="E18" t="n">
-        <v>4.877864121792854</v>
+        <v>5.055784947188199</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.550902175335545</v>
+        <v>-1.658779149833009</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9774746455730545</v>
+        <v>0.9965061107687011</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.4186243659841112</v>
       </c>
       <c r="E19" t="n">
-        <v>5.36491758055429</v>
+        <v>5.535931610045367</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.768732255551468</v>
+        <v>-1.893666088256907</v>
       </c>
       <c r="G19" t="n">
-        <v>1.143377834977268</v>
+        <v>1.163293898919086</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.4920713868384062</v>
       </c>
       <c r="E20" t="n">
-        <v>5.781404614069573</v>
+        <v>5.9722040639154</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.918765397165168</v>
+        <v>-2.044233609362288</v>
       </c>
       <c r="G20" t="n">
-        <v>1.270459416773722</v>
+        <v>1.291046012861214</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.5617416844994998</v>
       </c>
       <c r="E21" t="n">
-        <v>6.08040371233273</v>
+        <v>6.262851416720935</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.122356900409806</v>
+        <v>-2.240520089864969</v>
       </c>
       <c r="G21" t="n">
-        <v>1.387915871643422</v>
+        <v>1.406530221771924</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.6287797387456656</v>
       </c>
       <c r="E22" t="n">
-        <v>6.40620993025076</v>
+        <v>6.591158751022712</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.22690639848484</v>
+        <v>-2.338924617290446</v>
       </c>
       <c r="G22" t="n">
-        <v>1.485900135963511</v>
+        <v>1.501275154740376</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.6923608928042225</v>
       </c>
       <c r="E23" t="n">
-        <v>6.529842836152444</v>
+        <v>6.717231386562412</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.317048112533048</v>
+        <v>-2.428265155605912</v>
       </c>
       <c r="G23" t="n">
-        <v>1.588499424347254</v>
+        <v>1.601847106495883</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.752351806759474</v>
       </c>
       <c r="E24" t="n">
-        <v>6.673835679388151</v>
+        <v>6.848403844055126</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.377434569112189</v>
+        <v>-2.479877242593362</v>
       </c>
       <c r="G24" t="n">
-        <v>1.589593367636558</v>
+        <v>1.607948004610045</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.8064460197494061</v>
       </c>
       <c r="E25" t="n">
-        <v>6.748951019894863</v>
+        <v>6.930092288412389</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.380513350513453</v>
+        <v>-2.490490853528292</v>
       </c>
       <c r="G25" t="n">
-        <v>1.634788178666464</v>
+        <v>1.654005378118425</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.8530102892577357</v>
       </c>
       <c r="E26" t="n">
-        <v>6.760776625553196</v>
+        <v>6.916653313154724</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.390829471834457</v>
+        <v>-2.518934166059756</v>
       </c>
       <c r="G26" t="n">
-        <v>1.675396297976901</v>
+        <v>1.674126064546011</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.8896779806805357</v>
       </c>
       <c r="E27" t="n">
-        <v>6.704650251725855</v>
+        <v>6.847934786356978</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.308594055832542</v>
+        <v>-2.419445139459704</v>
       </c>
       <c r="G27" t="n">
-        <v>1.628906069210164</v>
+        <v>1.63739632835046</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.9156374943721528</v>
       </c>
       <c r="E28" t="n">
-        <v>6.596938549236128</v>
+        <v>6.717055096420826</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.257730414937271</v>
+        <v>-2.344792560574655</v>
       </c>
       <c r="G28" t="n">
-        <v>1.587858798564884</v>
+        <v>1.577478142459906</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.9306066804525248</v>
       </c>
       <c r="E29" t="n">
-        <v>6.455967822713317</v>
+        <v>6.553709688088726</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.171491481300328</v>
+        <v>-2.264013112259943</v>
       </c>
       <c r="G29" t="n">
-        <v>1.542980365378359</v>
+        <v>1.524169262859695</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.9353892526511871</v>
       </c>
       <c r="E30" t="n">
-        <v>6.293683303268974</v>
+        <v>6.363083380346242</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.131104511676434</v>
+        <v>-2.217789679734266</v>
       </c>
       <c r="G30" t="n">
-        <v>1.472464308744088</v>
+        <v>1.457032625278856</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.9314665070053931</v>
       </c>
       <c r="E31" t="n">
-        <v>6.029021432136991</v>
+        <v>6.078245732117427</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.96770637370377</v>
+        <v>-2.026111927218754</v>
       </c>
       <c r="G31" t="n">
-        <v>1.392828385321001</v>
+        <v>1.3781601011296</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.9206381188967365</v>
       </c>
       <c r="E32" t="n">
-        <v>5.786872756496972</v>
+        <v>5.813316277734823</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.851710608578637</v>
+        <v>-1.899275892405223</v>
       </c>
       <c r="G32" t="n">
-        <v>1.319551499147969</v>
+        <v>1.291107399606944</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.9044445276433729</v>
       </c>
       <c r="E33" t="n">
-        <v>5.447460717294419</v>
+        <v>5.450742547162331</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.791488636997673</v>
+        <v>-1.829980487599521</v>
       </c>
       <c r="G33" t="n">
-        <v>1.244105614625785</v>
+        <v>1.211621008000381</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.8839243825017704</v>
       </c>
       <c r="E34" t="n">
-        <v>5.160897944108658</v>
+        <v>5.137325433748059</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.709507425083848</v>
+        <v>-1.750815195893703</v>
       </c>
       <c r="G34" t="n">
-        <v>1.13201656495972</v>
+        <v>1.093432634239276</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.8592036453112479</v>
       </c>
       <c r="E35" t="n">
-        <v>4.769305597015867</v>
+        <v>4.730877494188432</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.663731013988621</v>
+        <v>-1.699454951965661</v>
       </c>
       <c r="G35" t="n">
-        <v>1.058854582182543</v>
+        <v>1.019379756639443</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.8303271832960496</v>
       </c>
       <c r="E36" t="n">
-        <v>4.313252444848448</v>
+        <v>4.265208659208987</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.592712845254655</v>
+        <v>-1.615342518161595</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9971640507614048</v>
+        <v>0.9514214810772855</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.7977681947957118</v>
       </c>
       <c r="E37" t="n">
-        <v>3.957601250371436</v>
+        <v>3.886834924696879</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.558879304242297</v>
+        <v>-1.580012871974441</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9163334468252505</v>
+        <v>0.8732368032840377</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7628445805802441</v>
       </c>
       <c r="E38" t="n">
-        <v>3.626822706049218</v>
+        <v>3.535753107729003</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.468240987161318</v>
+        <v>-1.49041340751352</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8259280845742243</v>
+        <v>0.7776230117606274</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.7269813706682376</v>
       </c>
       <c r="E39" t="n">
-        <v>3.209101641542835</v>
+        <v>3.10463556648123</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.44557747284327</v>
+        <v>-1.463508698673128</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7585207157045223</v>
+        <v>0.7147645581514845</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6917063955395881</v>
       </c>
       <c r="E40" t="n">
-        <v>2.810218437880179</v>
+        <v>2.690528449877353</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.443856282934128</v>
+        <v>-1.455964425024733</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6889821249445792</v>
+        <v>0.6427437392372503</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6572058116099972</v>
       </c>
       <c r="E41" t="n">
-        <v>2.459632436935513</v>
+        <v>2.343013360238345</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.41486363772933</v>
+        <v>-1.420801624864437</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6379996456056499</v>
+        <v>0.5896819806390827</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.6243473982079216</v>
       </c>
       <c r="E42" t="n">
-        <v>2.088559003107997</v>
+        <v>1.969459272275659</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.38526342114371</v>
+        <v>-1.38805887910314</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5718766763389294</v>
+        <v>0.5257043994346949</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5922564237732929</v>
       </c>
       <c r="E43" t="n">
-        <v>1.845999508477318</v>
+        <v>1.729795972828174</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.358671942108456</v>
+        <v>-1.366165060135408</v>
       </c>
       <c r="G43" t="n">
-        <v>0.497819076681732</v>
+        <v>0.4491708676996917</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.5613182813676508</v>
       </c>
       <c r="E44" t="n">
-        <v>1.621900110101254</v>
+        <v>1.517643379582782</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.358973366770185</v>
+        <v>-1.363386916386312</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4252992937060454</v>
+        <v>0.3834052007735063</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.5310042576143592</v>
       </c>
       <c r="E45" t="n">
-        <v>1.402908403773811</v>
+        <v>1.295330492909394</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.288539946139782</v>
+        <v>-1.291968159785975</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3721179096546591</v>
+        <v>0.3228306489093706</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.5012831602787833</v>
       </c>
       <c r="E46" t="n">
-        <v>1.179940725145962</v>
+        <v>1.071161837691993</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.225886115016409</v>
+        <v>-1.23213260989929</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3303576083474306</v>
+        <v>0.2868202394522535</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.4717282894769649</v>
       </c>
       <c r="E47" t="n">
-        <v>1.052816644833233</v>
+        <v>0.9430807537535132</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.17870410484586</v>
+        <v>-1.177211934718867</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2570933143273687</v>
+        <v>0.2103181880996762</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.4420390384552938</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8733800390240761</v>
+        <v>0.7817579599922844</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.103957871823093</v>
+        <v>-1.102862354514668</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1907594264983938</v>
+        <v>0.1539226570025938</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.4121561796397822</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7123106623413767</v>
+        <v>0.6154707099224732</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.039449846174827</v>
+        <v>-1.045680600866496</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1455079507801204</v>
+        <v>0.1066233824075082</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.3818477112582806</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6314800584052225</v>
+        <v>0.5365430951039716</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.9786911340734995</v>
+        <v>-0.9908071462597116</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1231049366266477</v>
+        <v>0.09446251067633905</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.3519851968155478</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5106866829983652</v>
+        <v>0.4174480863289976</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9588852514701729</v>
+        <v>-0.9719189168041033</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1078857457427913</v>
+        <v>0.08716220999174647</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.3230806587871882</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3541032608113727</v>
+        <v>0.2861544293639433</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9530291133293737</v>
+        <v>-0.9748820077999518</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05441789021132826</v>
+        <v>0.02850166537911243</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.2961945265157231</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2954096617971914</v>
+        <v>0.2169416605621095</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9341660681797063</v>
+        <v>-0.9368230124564618</v>
       </c>
       <c r="G53" t="n">
-        <v>0.05688752621264903</v>
+        <v>0.03617658261457458</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.2717963113869029</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1721608165611049</v>
+        <v>0.1236684354720733</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.8948935040936935</v>
+        <v>-0.9091163408737665</v>
       </c>
       <c r="G54" t="n">
-        <v>0.01592367858079864</v>
+        <v>-0.001469232709573966</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.2502996718135056</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1082304559303562</v>
+        <v>0.07871759740596827</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9030390530464245</v>
+        <v>-0.9235075976998187</v>
       </c>
       <c r="G55" t="n">
-        <v>0.004608055117767989</v>
+        <v>-0.01598483704620891</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.2315333859631498</v>
       </c>
       <c r="E56" t="n">
-        <v>0.02590295980984499</v>
+        <v>0.00410594301807307</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9099592281132229</v>
+        <v>-0.9362004878939875</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.03183835763594944</v>
+        <v>-0.04769660028305386</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.2160061853159378</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.07439983467592004</v>
+        <v>-0.08970874464969053</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9358054090945409</v>
+        <v>-0.9681782603623322</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.07201834374539209</v>
+        <v>-0.0841556051897417</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.2028997424455153</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1163285560291278</v>
+        <v>-0.1263172813729019</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9324141848976986</v>
+        <v>-0.9692777127185607</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.09901434569482019</v>
+        <v>-0.1094264821822242</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.1913042861565673</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.1940111217226806</v>
+        <v>-0.1967011204009835</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9431088578173761</v>
+        <v>-0.9744460045033515</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1157965375661281</v>
+        <v>-0.1197158451781668</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.1789300711817932</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2774892258208626</v>
+        <v>-0.2706296504902342</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.9739737987669613</v>
+        <v>-1.015438971488946</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1259709971662158</v>
+        <v>-0.1272097502146794</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.1641872149507167</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3596577460101224</v>
+        <v>-0.3429983276302759</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.9559670200192815</v>
+        <v>-0.9956795224496978</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1640764260737841</v>
+        <v>-0.1639442084675949</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.1456538844534326</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.481693022503686</v>
+        <v>-0.4700200967001201</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.9867131225252085</v>
+        <v>-1.034154845850772</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1837406469561936</v>
+        <v>-0.1868902592179163</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.1229265362002785</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5275898460616928</v>
+        <v>-0.5268138546348915</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.006153832692393</v>
+        <v>-1.068614846473408</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2177426080145311</v>
+        <v>-0.2212731329036085</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.09655651493154307</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6729426418182047</v>
+        <v>-0.6662987071071945</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.044846370732207</v>
+        <v>-1.110689951604896</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2651378977760161</v>
+        <v>-0.2718180349268162</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.0672500042133541</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8397886686760777</v>
+        <v>-0.8274908572813554</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.107900789721952</v>
+        <v>-1.178057969996566</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3257628182520333</v>
+        <v>-0.3357578396722927</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.03650974564164379</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9480150754184704</v>
+        <v>-0.9393556092226346</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.134289220290558</v>
+        <v>-1.207330790604956</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3619510918698575</v>
+        <v>-0.3671831314290609</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.006265449518952873</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.032513143907255</v>
+        <v>-1.031595490759537</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.190619429594106</v>
+        <v>-1.270498538971434</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4131334716371919</v>
+        <v>-0.4338050647572339</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.02080815675752463</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.125732065337606</v>
+        <v>-1.140539650221243</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.248839248852776</v>
+        <v>-1.337570641768299</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4443525668890698</v>
+        <v>-0.4463814775364264</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.04237849917279469</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.278979353997002</v>
+        <v>-1.309084043710999</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.3038819105151</v>
+        <v>-1.396124153080684</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4763964481605092</v>
+        <v>-0.4810413785874675</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.0563579916918148</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.334022802668887</v>
+        <v>-1.36924148050799</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.385358649300549</v>
+        <v>-1.48898498516094</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.511912615613538</v>
+        <v>-0.5217140326818773</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.06198263543377584</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.391460334424271</v>
+        <v>-1.430471611336148</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.414860489691087</v>
+        <v>-1.532806464507512</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5651144619135011</v>
+        <v>-0.5817093455093744</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.0595544277752847</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.4675893432451</v>
+        <v>-1.504859755008818</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.463828224554752</v>
+        <v>-1.577815541281105</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5501061895918991</v>
+        <v>-0.5774925482834098</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.04916052818052013</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.50371308207895</v>
+        <v>-1.567475809673281</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.469624549968941</v>
+        <v>-1.582726480939563</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5771320979046319</v>
+        <v>-0.6085872960247048</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.03137177895007982</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.549957763862765</v>
+        <v>-1.61980171433224</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.50515252256538</v>
+        <v>-1.613695307151154</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5838563075908284</v>
+        <v>-0.6135249940082251</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.007708547936007798</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.542311178971486</v>
+        <v>-1.622809664873046</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.495828820300355</v>
+        <v>-1.601225140662649</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6046664143935448</v>
+        <v>-0.6332553236937293</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.02046042694884016</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.460209554594881</v>
+        <v>-1.53466774211845</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.5581332191788</v>
+        <v>-1.670722806925439</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5869382370303352</v>
+        <v>-0.6161929564188298</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.05188933083224381</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.417565441551042</v>
+        <v>-1.469007534473391</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.569015987383473</v>
+        <v>-1.678008154428379</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5616091213303646</v>
+        <v>-0.5912054028681814</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.08608712818906049</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.244661802104844</v>
+        <v>-1.298072205938379</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.516519301649853</v>
+        <v>-1.620945239223865</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5231794444838083</v>
+        <v>-0.5504965463339817</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.1226256691570683</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.126222372293892</v>
+        <v>-1.172946342900142</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.495432167481787</v>
+        <v>-1.591305672160212</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5231857405602934</v>
+        <v>-0.5616925443437935</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.1618063386195982</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.9492711426772683</v>
+        <v>-0.9881596460976838</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.462404524259535</v>
+        <v>-1.552607625053474</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5112578236590768</v>
+        <v>-0.548314955831859</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.2026502352158081</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.8045432325119127</v>
+        <v>-0.8419734072164431</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.431474261516416</v>
+        <v>-1.513098958099266</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4807344448588139</v>
+        <v>-0.5135448734423267</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.2445240176108591</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.6038526465078324</v>
+        <v>-0.6225409755350354</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.426016350213306</v>
+        <v>-1.503199164835846</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4361881297068831</v>
+        <v>-0.4622318500879243</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.2862061574160832</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.399696070398648</v>
+        <v>-0.4106874459226907</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.343373263258974</v>
+        <v>-1.397739096699139</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3526124364231805</v>
+        <v>-0.3777762801154146</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.3273937549475102</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.212957589885777</v>
+        <v>-0.2150368691450152</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.325260238220606</v>
+        <v>-1.357477261595389</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3313490121135295</v>
+        <v>-0.3543076550168213</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.3667021137064342</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.02144668339712229</v>
+        <v>-0.02019376417656695</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.205026426611371</v>
+        <v>-1.230398827837178</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3007343402042311</v>
+        <v>-0.3299245248087524</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.4027227471141133</v>
       </c>
       <c r="E86" t="n">
-        <v>0.2386096077859347</v>
+        <v>0.2470935708497455</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.104285267800324</v>
+        <v>-1.119548531219577</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2330845723898489</v>
+        <v>-0.2679396518119313</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.4332455221699222</v>
       </c>
       <c r="E87" t="n">
-        <v>0.4700880078026565</v>
+        <v>0.482758861729127</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9786124331174344</v>
+        <v>-0.9844260727419585</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1725084465065919</v>
+        <v>-0.2012531836997851</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.4557215049426253</v>
       </c>
       <c r="E88" t="n">
-        <v>0.6442075770200598</v>
+        <v>0.6522051681753886</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8300360462004986</v>
+        <v>-0.8339081332388983</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1473288626231448</v>
+        <v>-0.178691193615061</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.4676045502661921</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8252937548683401</v>
+        <v>0.837207505597465</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7109174271387052</v>
+        <v>-0.72077393487629</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.0942529378528856</v>
+        <v>-0.1175137924274672</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.4667635855318757</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9611268829792255</v>
+        <v>0.976420052761783</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5361462140050833</v>
+        <v>-0.527496978933536</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.07603366652383015</v>
+        <v>-0.09967858176400908</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.4516492355299153</v>
       </c>
       <c r="E91" t="n">
-        <v>1.079382939562546</v>
+        <v>1.099202988337965</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3372295475507089</v>
+        <v>-0.331068836709938</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.09422460550870219</v>
+        <v>-0.1217132754430974</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.4227133857770371</v>
       </c>
       <c r="E92" t="n">
-        <v>1.139937029178105</v>
+        <v>1.161534145541472</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1997940679743393</v>
+        <v>-0.1925771903031757</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.05582955708281452</v>
+        <v>-0.08351340538825101</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.3819344094790587</v>
       </c>
       <c r="E93" t="n">
-        <v>1.177598584693466</v>
+        <v>1.189361229586947</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.1002908752021951</v>
+        <v>-0.09068778454313955</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.0548615353232146</v>
+        <v>-0.08037008920301354</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.3315513177126262</v>
       </c>
       <c r="E94" t="n">
-        <v>1.157751777592986</v>
+        <v>1.178689379944528</v>
       </c>
       <c r="F94" t="n">
-        <v>0.04786052655198959</v>
+        <v>0.06337248499240787</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.02074467086902219</v>
+        <v>-0.04185226728566441</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.2751103090952028</v>
       </c>
       <c r="E95" t="n">
-        <v>1.168455107617831</v>
+        <v>1.192359736013024</v>
       </c>
       <c r="F95" t="n">
-        <v>0.125096070815093</v>
+        <v>0.1467608700006757</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.05457034178577397</v>
+        <v>-0.07669318053565513</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.2172703925007478</v>
       </c>
       <c r="E96" t="n">
-        <v>1.089496012416903</v>
+        <v>1.111513391885657</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2011699889666766</v>
+        <v>0.2315249477209604</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.08573119833016368</v>
+        <v>-0.1008150235695882</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.1633316496995376</v>
       </c>
       <c r="E97" t="n">
-        <v>1.037910683754516</v>
+        <v>1.063224059263273</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2475342962037096</v>
+        <v>0.2806752688026956</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.04859221716307396</v>
+        <v>-0.06869873741856894</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.1182428480168712</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9239800317165293</v>
+        <v>0.9421867108926144</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2289419823429059</v>
+        <v>0.2608819783523394</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1076273783265776</v>
+        <v>-0.1246944676588409</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.08499941015973565</v>
       </c>
       <c r="E99" t="n">
-        <v>0.888737743590607</v>
+        <v>0.9118537884060288</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2136614047133188</v>
+        <v>0.2368089299111668</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.0946873671303646</v>
+        <v>-0.1107769905883002</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.06063937049200457</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8354367340860017</v>
+        <v>0.8528894581029838</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2035766642031453</v>
+        <v>0.2310322797359932</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.09685164342215305</v>
+        <v>-0.1114727070399151</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.04188154226113665</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7798313605878123</v>
+        <v>0.794052623348764</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1852487855547201</v>
+        <v>0.2031548270786367</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.08354173773243442</v>
+        <v>-0.09764022700192469</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.01982127068624521</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7674926246959363</v>
+        <v>0.7840717681005964</v>
       </c>
       <c r="F102" t="n">
-        <v>0.158414907574786</v>
+        <v>0.1714603780521261</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.06755127747914075</v>
+        <v>-0.08069748518024408</v>
       </c>
     </row>
   </sheetData>
